--- a/Result.xlsx
+++ b/Result.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="Начало">'Sheet1'!$B$1</definedName>
-    <definedName name="МатрСвязиОпераций">'Sheet1'!$C$2:$E$13</definedName>
+    <definedName name="МатрСвязиОпераций">'Sheet1'!$C$2:$K$16</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Задел 1</t>
   </si>
@@ -28,7 +28,34 @@
     <t>Задел 2</t>
   </si>
   <si>
+    <t>Задел 3</t>
+  </si>
+  <si>
+    <t>Задел 4</t>
+  </si>
+  <si>
+    <t>Задел 5</t>
+  </si>
+  <si>
+    <t>Задел 6</t>
+  </si>
+  <si>
+    <t>Задел 7</t>
+  </si>
+  <si>
     <t>Цепь 1</t>
+  </si>
+  <si>
+    <t>Цепь 2</t>
+  </si>
+  <si>
+    <t>Токарный 1</t>
+  </si>
+  <si>
+    <t>Сварочный 2</t>
+  </si>
+  <si>
+    <t>Фрезерный 3</t>
   </si>
   <si>
     <t>Погрузка 1</t>
@@ -546,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -568,20 +595,38 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
       <c r="Q1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="U1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="12.75">
@@ -589,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -598,16 +643,16 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75">
@@ -615,19 +660,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12.75">
@@ -635,19 +686,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>-1</v>
       </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="P4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="T4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -658,13 +712,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="S5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -675,10 +735,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="12.75">
@@ -686,16 +752,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="12.75">
@@ -703,16 +775,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R8">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="12.75">
@@ -720,16 +798,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R9">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75">
@@ -737,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75">
@@ -745,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75">
@@ -753,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75">
@@ -761,7 +839,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="12.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="12.75">
+      <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="12.75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
